--- a/Data/crop/crop_data_extraction.xlsx
+++ b/Data/crop/crop_data_extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/ajwal_uoguelph_ca/Documents/Work/Dinner on Mars/Research_progress_review/Analysis/CEA_scoping/Data/crop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="833" documentId="14_{845304F0-1E85-734C-AF38-7CA130059175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A04B4C1-18E6-AF42-A9AC-BE957BE87AB9}"/>
+  <xr:revisionPtr revIDLastSave="855" documentId="14_{845304F0-1E85-734C-AF38-7CA130059175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CED2C999-448C-7446-8351-CCBDEFFBE859}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="savedrecs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="1704">
   <si>
     <t>Authors</t>
   </si>
@@ -4812,12 +4812,6 @@
     <t>10.1002/jsfa.6227</t>
   </si>
   <si>
-    <t>Crop</t>
-  </si>
-  <si>
-    <t>Crop category</t>
-  </si>
-  <si>
     <t>Environment variable</t>
   </si>
   <si>
@@ -5079,39 +5073,9 @@
     <t>Digitalis purpurea</t>
   </si>
   <si>
-    <t>Lettuce, Rocket</t>
-  </si>
-  <si>
-    <t>Hypericum</t>
-  </si>
-  <si>
-    <t>Lettuce, Endive</t>
-  </si>
-  <si>
     <t>Camphor</t>
   </si>
   <si>
-    <t>Periwinkle , Marigold</t>
-  </si>
-  <si>
-    <t>Lettuce, Mizuna</t>
-  </si>
-  <si>
-    <t>Tomato, Peppers, Cucumber, Gourd, Watermelon, Bottle Gourd</t>
-  </si>
-  <si>
-    <t>Lettuce, Basil</t>
-  </si>
-  <si>
-    <t>Lettuce, Basil, Rocket, Chicory</t>
-  </si>
-  <si>
-    <t>Basil, Kale, Mustard</t>
-  </si>
-  <si>
-    <t>Chrysanthemum, Spathiphyllum</t>
-  </si>
-  <si>
     <t>Toona sinensi</t>
   </si>
   <si>
@@ -5148,10 +5112,40 @@
     <t>Commercial</t>
   </si>
   <si>
-    <t>Mustard, Radish, Basil, Red Amaranth, Garlic Chives, Borage, Pea Shoots</t>
-  </si>
-  <si>
-    <t>Study ID</t>
+    <t>study_id</t>
+  </si>
+  <si>
+    <t>crop_category</t>
+  </si>
+  <si>
+    <t>Lettuce,Rocket</t>
+  </si>
+  <si>
+    <t>Lettuce,Endive</t>
+  </si>
+  <si>
+    <t>Mustard,Radish,Basil,Red Amaranth,Garlic Chives,Borage,Pea Shoots</t>
+  </si>
+  <si>
+    <t>Lettuce,Basil</t>
+  </si>
+  <si>
+    <t>Periwinkle,Marigold</t>
+  </si>
+  <si>
+    <t>Lettuce,Mizuna</t>
+  </si>
+  <si>
+    <t>Tomato,Peppers,Cucumber,Gourd,Watermelon,Bottle Gourd</t>
+  </si>
+  <si>
+    <t>Lettuce,Basil,Rocket,Chicory</t>
+  </si>
+  <si>
+    <t>Basil,Kale,Mustard</t>
+  </si>
+  <si>
+    <t>Chrysanthemum,Spathiphyllum</t>
   </si>
 </sst>
 </file>
@@ -5534,11 +5528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:M311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5548,7 +5542,7 @@
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="56.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
     <col min="13" max="13" width="27.33203125" customWidth="1"/>
@@ -5557,7 +5551,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5584,19 +5578,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="L1" t="s">
         <v>1592</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>1593</v>
       </c>
-      <c r="L1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5626,16 +5620,16 @@
         <v>http://dx.doi.org/10.1016/j.biosystemseng.2022.06.007</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K2" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="M2" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5665,16 +5659,16 @@
         <v>http://dx.doi.org/10.1016/j.jclepro.2022.132069</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="K3" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="M3" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5704,13 +5698,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae8080673</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5740,13 +5734,13 @@
         <v>http://dx.doi.org/10.1007/s13580-022-00448-0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5776,16 +5770,16 @@
         <v>http://dx.doi.org/10.1016/j.jksus.2022.102168</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
       <c r="M6" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5815,13 +5809,13 @@
         <v>http://dx.doi.org/10.3390/agronomy12081787</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5851,13 +5845,13 @@
         <v>http://dx.doi.org/10.1016/j.envexpbot.2022.104918</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K8" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5887,13 +5881,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae8080725</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5923,13 +5917,13 @@
         <v>http://dx.doi.org/10.1007/s00344-022-10724-z</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="K10" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5959,13 +5953,13 @@
         <v>http://dx.doi.org/10.3390/biology11070959</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5995,13 +5989,13 @@
         <v>http://dx.doi.org/10.3390/agronomy12071502</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="K12" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6031,13 +6025,13 @@
         <v>http://dx.doi.org/10.3390/plants11141818</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K13" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6067,13 +6061,13 @@
         <v>http://dx.doi.org/10.3390/ijms23147619</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K14" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6103,13 +6097,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae8070604</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1681</v>
+        <v>1694</v>
       </c>
       <c r="K15" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6139,13 +6133,13 @@
         <v>http://dx.doi.org/10.3390/plants11131732</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6175,13 +6169,13 @@
         <v>http://dx.doi.org/10.3390/agronomy12071699</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="K17" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6211,13 +6205,13 @@
         <v>http://dx.doi.org/10.3390/biology11070991</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6247,13 +6241,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae8070653</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6283,13 +6277,13 @@
         <v>http://dx.doi.org/10.1002/fes3.391</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6319,13 +6313,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2022.111068</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6355,13 +6349,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2022.111076</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6391,13 +6385,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2022.918170</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6427,13 +6421,13 @@
         <v>http://dx.doi.org/10.3390/ijms23126819</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K24" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6463,13 +6457,13 @@
         <v>http://dx.doi.org/10.1016/j.envexpbot.2022.104866</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K25" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6499,13 +6493,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2022.111042</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K26" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6535,13 +6529,13 @@
         <v>http://dx.doi.org/10.1016/j.compag.2022.106991</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K27" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6571,13 +6565,13 @@
         <v>http://dx.doi.org/10.1038/s41598-022-12732-1</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K28" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>29</v>
       </c>
@@ -6607,13 +6601,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2022.874035</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>30</v>
       </c>
@@ -6643,13 +6637,13 @@
         <v>http://dx.doi.org/10.25165/j.ijabe.20221503.7362</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>31</v>
       </c>
@@ -6679,13 +6673,13 @@
         <v>http://dx.doi.org/10.3390/agronomy12051026</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>32</v>
       </c>
@@ -6715,13 +6709,13 @@
         <v>http://dx.doi.org/10.3390/antiox11050811</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>33</v>
       </c>
@@ -6751,13 +6745,13 @@
         <v>http://dx.doi.org/10.1038/s41598-022-11001-5</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>34</v>
       </c>
@@ -6787,13 +6781,13 @@
         <v>http://dx.doi.org/10.1038/s41598-022-10681-3</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>35</v>
       </c>
@@ -6823,13 +6817,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2022.852654</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>36</v>
       </c>
@@ -6859,10 +6853,10 @@
         <v>http://dx.doi.org/10.3390/horticulturae8040294</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="56" x14ac:dyDescent="0.15">
@@ -6895,13 +6889,13 @@
         <v>http://dx.doi.org/10.1016/j.envexpbot.2022.104797</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>38</v>
       </c>
@@ -6931,13 +6925,13 @@
         <v>http://dx.doi.org/10.1016/j.envexpbot.2022.104811</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>39</v>
       </c>
@@ -6967,13 +6961,13 @@
         <v>http://dx.doi.org/10.3390/plants11081010</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>40</v>
       </c>
@@ -7003,13 +6997,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae8040315</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>41</v>
       </c>
@@ -7039,13 +7033,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae8040346</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>42</v>
       </c>
@@ -7075,13 +7069,13 @@
         <v>http://dx.doi.org/10.1186/s12870-022-03528-6</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43</v>
       </c>
@@ -7111,13 +7105,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2021.110864</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>44</v>
       </c>
@@ -7147,13 +7141,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae8030270</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>45</v>
       </c>
@@ -7183,13 +7177,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae8030256</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>46</v>
       </c>
@@ -7219,13 +7213,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae8030216</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>47</v>
       </c>
@@ -7255,13 +7249,13 @@
         <v>http://dx.doi.org/10.3390/plants11030342</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>48</v>
       </c>
@@ -7291,13 +7285,13 @@
         <v>http://dx.doi.org/10.3390/agronomy12020343</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>49</v>
       </c>
@@ -7327,13 +7321,13 @@
         <v>http://dx.doi.org/10.3390/plants11030441</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>50</v>
       </c>
@@ -7363,13 +7357,13 @@
         <v>http://dx.doi.org/10.1007/s13580-021-00410-6</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>51</v>
       </c>
@@ -7399,13 +7393,13 @@
         <v>http://dx.doi.org/10.1007/s13580-021-00380-9</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>52</v>
       </c>
@@ -7435,13 +7429,13 @@
         <v>http://dx.doi.org/10.1007/s13580-021-00376-5</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>53</v>
       </c>
@@ -7471,13 +7465,13 @@
         <v>http://dx.doi.org/10.1007/s13580-021-00377-4</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>54</v>
       </c>
@@ -7507,13 +7501,13 @@
         <v>http://dx.doi.org/10.1007/s13580-021-00394-3</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>55</v>
       </c>
@@ -7543,13 +7537,13 @@
         <v>http://dx.doi.org/10.2480/agrmet.D-21-00038</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>56</v>
       </c>
@@ -7579,13 +7573,13 @@
         <v>http://dx.doi.org/10.4081/ija.2021.1915</v>
       </c>
       <c r="J56" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>1683</v>
       </c>
-      <c r="K56" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>57</v>
       </c>
@@ -7615,13 +7609,13 @@
         <v>http://dx.doi.org/10.47280/RevFacAgron(LUZ).v39.n1.20</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>58</v>
       </c>
@@ -7651,13 +7645,13 @@
         <v>http://dx.doi.org/10.3390/agronomy12010194</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>59</v>
       </c>
@@ -7687,13 +7681,13 @@
         <v>http://dx.doi.org/10.3390/plants11010121</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>60</v>
       </c>
@@ -7723,13 +7717,13 @@
         <v>http://dx.doi.org/10.2503/hortj.UTD-272</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>61</v>
       </c>
@@ -7759,13 +7753,13 @@
         <v>http://dx.doi.org/10.3991/ijoe.v18i07.25467</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>62</v>
       </c>
@@ -7795,13 +7789,13 @@
         <v>http://dx.doi.org/10.1371/journal.pone.0265994</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>63</v>
       </c>
@@ -7831,13 +7825,13 @@
         <v>http://dx.doi.org/10.3390/agronomy12010024</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>64</v>
       </c>
@@ -7867,13 +7861,13 @@
         <v>http://dx.doi.org/10.6180/jase.202210_25(5).0009</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>65</v>
       </c>
@@ -7903,13 +7897,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.786555</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>66</v>
       </c>
@@ -7939,13 +7933,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.799376</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>67</v>
       </c>
@@ -7975,13 +7969,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2021.110802</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>68</v>
       </c>
@@ -8011,13 +8005,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2021.110802</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K68" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8047,13 +8041,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2021.110802</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K69" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8083,13 +8077,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI16189-21</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8119,13 +8113,13 @@
         <v>http://dx.doi.org/10.17660/eJHS.2021/86.6.2</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8155,13 +8149,13 @@
         <v>http://dx.doi.org/10.3390/molecules26237405</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8191,10 +8185,10 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.761068</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="56" x14ac:dyDescent="0.15">
@@ -8227,13 +8221,13 @@
         <v>http://dx.doi.org/10.1016/j.indcrop.2021.114239</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>1682</v>
+        <v>1624</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8263,13 +8257,13 @@
         <v>http://dx.doi.org/10.1002/agj2.20838</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8299,13 +8293,13 @@
         <v>http://dx.doi.org/10.1080/02827581.2021.1996627</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8335,13 +8329,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae7110444</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8371,13 +8365,13 @@
         <v>http://dx.doi.org/10.3390/agronomy11112111</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8407,13 +8401,13 @@
         <v>http://dx.doi.org/10.3390/ijms222112019</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8443,13 +8437,13 @@
         <v>http://dx.doi.org/10.3390/plants10102182</v>
       </c>
       <c r="J80" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="K80" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8479,13 +8473,13 @@
         <v>http://dx.doi.org/10.3390/plants10102110</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8515,13 +8509,13 @@
         <v>http://dx.doi.org/10.1007/s11694-021-01150-y</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8551,13 +8545,13 @@
         <v>http://dx.doi.org/10.1016/j.compag.2021.106443</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8587,13 +8581,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae7090294</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8623,13 +8617,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae7090283</v>
       </c>
       <c r="J85" t="s">
-        <v>1688</v>
+        <v>1697</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8659,13 +8653,13 @@
         <v>http://dx.doi.org/10.1016/j.foodchem.2021.130913</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8695,13 +8689,13 @@
         <v>http://dx.doi.org/10.3390/agriculture11090816</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8731,13 +8725,13 @@
         <v>http://dx.doi.org/10.1016/S2095-3119(20)63382-2</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8767,13 +8761,13 @@
         <v>http://dx.doi.org/10.3390/molecules26154646</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K89" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8803,13 +8797,13 @@
         <v>http://dx.doi.org/10.3390/agriculture11080728</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8839,13 +8833,13 @@
         <v>http://dx.doi.org/10.3390/agriculture11080723</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8875,13 +8869,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.667407</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8911,13 +8905,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.667456</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8947,13 +8941,13 @@
         <v>http://dx.doi.org/10.1016/j.jafr.2021.100181</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8983,13 +8977,13 @@
         <v>http://dx.doi.org/10.3390/foods10071524</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>96</v>
       </c>
@@ -9019,13 +9013,13 @@
         <v>http://dx.doi.org/10.1016/j.envexpbot.2021.104567</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>97</v>
       </c>
@@ -9055,13 +9049,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.678197</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>98</v>
       </c>
@@ -9091,13 +9085,13 @@
         <v>http://dx.doi.org/10.1016/j.envexpbot.2021.104531</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>99</v>
       </c>
@@ -9127,13 +9121,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.623682</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>100</v>
       </c>
@@ -9163,13 +9157,13 @@
         <v>http://dx.doi.org/10.3390/agronomy11061106</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>101</v>
       </c>
@@ -9199,13 +9193,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae7060139</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>102</v>
       </c>
@@ -9235,13 +9229,13 @@
         <v>http://dx.doi.org/10.3390/agriculture11060503</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>103</v>
       </c>
@@ -9271,13 +9265,13 @@
         <v>http://dx.doi.org/10.3390/plants10061075</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>104</v>
       </c>
@@ -9307,13 +9301,13 @@
         <v>http://dx.doi.org/10.3390/plants10061203</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>105</v>
       </c>
@@ -9343,13 +9337,13 @@
         <v>http://dx.doi.org/10.1016/j.foodchem.2020.128727</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>106</v>
       </c>
@@ -9379,13 +9373,13 @@
         <v>http://dx.doi.org/10.1016/j.envexpbot.2021.104507</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>107</v>
       </c>
@@ -9415,13 +9409,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae7050102</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>108</v>
       </c>
@@ -9451,13 +9445,13 @@
         <v>http://dx.doi.org/10.3390/agronomy11050932</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>109</v>
       </c>
@@ -9487,13 +9481,13 @@
         <v>http://dx.doi.org/10.3390/plants10050940</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>110</v>
       </c>
@@ -9523,13 +9517,13 @@
         <v>http://dx.doi.org/10.1038/s41598-021-87911-7</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>111</v>
       </c>
@@ -9559,13 +9553,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.646144</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>112</v>
       </c>
@@ -9595,13 +9589,13 @@
         <v>http://dx.doi.org/10.3390/plants10040704</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>1686</v>
+        <v>1699</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>113</v>
       </c>
@@ -9631,13 +9625,13 @@
         <v>http://dx.doi.org/10.3390/plants10040762</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>114</v>
       </c>
@@ -9667,13 +9661,13 @@
         <v>http://dx.doi.org/10.1007/s13580-021-00343-0</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>115</v>
       </c>
@@ -9703,13 +9697,13 @@
         <v>http://dx.doi.org/10.1007/s13580-021-00340-3</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>116</v>
       </c>
@@ -9739,13 +9733,13 @@
         <v>http://dx.doi.org/10.1016/j.foodchem.2020.128167</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>117</v>
       </c>
@@ -9775,13 +9769,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.615853</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>118</v>
       </c>
@@ -9811,13 +9805,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae7030056</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>119</v>
       </c>
@@ -9847,13 +9841,13 @@
         <v>http://dx.doi.org/10.3390/agronomy11030537</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K119" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>120</v>
       </c>
@@ -9883,13 +9877,13 @@
         <v>http://dx.doi.org/10.1016/j.foodchem.2020.128092</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>121</v>
       </c>
@@ -9919,13 +9913,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae7020032</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>122</v>
       </c>
@@ -9955,13 +9949,13 @@
         <v>http://dx.doi.org/10.3390/plants10020297</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>123</v>
       </c>
@@ -9991,13 +9985,13 @@
         <v>http://dx.doi.org/10.3390/agronomy11020363</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>124</v>
       </c>
@@ -10027,13 +10021,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.619973</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>125</v>
       </c>
@@ -10063,13 +10057,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2020.592171</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>126</v>
       </c>
@@ -10099,13 +10093,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2021.615355</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>127</v>
       </c>
@@ -10135,13 +10129,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2020.610041</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>128</v>
       </c>
@@ -10171,13 +10165,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2020.609977</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>129</v>
       </c>
@@ -10207,13 +10201,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2020.598519</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>130</v>
       </c>
@@ -10243,13 +10237,13 @@
         <v>http://dx.doi.org/10.1007/s00344-020-10277-z</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>131</v>
       </c>
@@ -10279,13 +10273,13 @@
         <v>http://dx.doi.org/10.7235/HORT.20210044</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>132</v>
       </c>
@@ -10315,13 +10309,13 @@
         <v>http://dx.doi.org/10.3233/MGC-210028</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>133</v>
       </c>
@@ -10351,13 +10345,13 @@
         <v>http://dx.doi.org/10.14502/Tekstilec2021.64.276-285</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>134</v>
       </c>
@@ -10387,13 +10381,13 @@
         <v>http://dx.doi.org/10.3389/frsc.2021.582431</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>135</v>
       </c>
@@ -10422,13 +10416,13 @@
         <v>9</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>136</v>
       </c>
@@ -10458,13 +10452,13 @@
         <v>http://dx.doi.org/10.7235/HORT.20210020</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>137</v>
       </c>
@@ -10494,13 +10488,13 @@
         <v>http://dx.doi.org/10.11450/seitaikogaku.33.101</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>138</v>
       </c>
@@ -10530,13 +10524,13 @@
         <v>http://dx.doi.org/10.7235/HORT.20210006</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>139</v>
       </c>
@@ -10566,13 +10560,13 @@
         <v>http://dx.doi.org/10.1007/s11738-020-03187-w</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>140</v>
       </c>
@@ -10601,13 +10595,13 @@
         <v>9</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>141</v>
       </c>
@@ -10636,13 +10630,13 @@
         <v>9</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>142</v>
       </c>
@@ -10672,13 +10666,13 @@
         <v>http://dx.doi.org/10.11450/seitaikogaku.33.93</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>143</v>
       </c>
@@ -10707,13 +10701,13 @@
         <v>9</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>144</v>
       </c>
@@ -10743,13 +10737,13 @@
         <v>http://dx.doi.org/10.15835/nbha49412524</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>145</v>
       </c>
@@ -10779,13 +10773,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2020.599982</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>146</v>
       </c>
@@ -10815,13 +10809,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2020.598082</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>147</v>
       </c>
@@ -10851,13 +10845,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2020.597906</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>148</v>
       </c>
@@ -10887,13 +10881,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10121943</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>149</v>
       </c>
@@ -10923,13 +10917,13 @@
         <v>http://dx.doi.org/10.1016/j.foodcont.2020.107389</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>150</v>
       </c>
@@ -10959,13 +10953,13 @@
         <v>http://dx.doi.org/10.1016/j.compag.2020.105847</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>151</v>
       </c>
@@ -10995,13 +10989,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae6040109</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>1687</v>
+        <v>1700</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -11031,13 +11025,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae6040109</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -11067,13 +11061,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10121979</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -11103,13 +11097,13 @@
         <v>http://dx.doi.org/10.3390/horticulturae6040063</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -11139,13 +11133,13 @@
         <v>http://dx.doi.org/10.3390/plants9121694</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -11175,13 +11169,13 @@
         <v>http://dx.doi.org/10.1021/acs.jafc.0c05020</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -11211,13 +11205,13 @@
         <v>http://dx.doi.org/10.3390/agriculture10110574</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -11247,13 +11241,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10111680</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -11283,13 +11277,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10111678</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -11319,13 +11313,13 @@
         <v>http://dx.doi.org/10.1016/j.indcrop.2020.112774</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -11355,13 +11349,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10111659</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>1686</v>
+        <v>1699</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -11391,13 +11385,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10111769</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -11427,13 +11421,13 @@
         <v>http://dx.doi.org/10.3390/plants9111542</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>163</v>
       </c>
@@ -11463,13 +11457,13 @@
         <v>http://dx.doi.org/10.1007/s13580-020-00285-z</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
@@ -11499,13 +11493,13 @@
         <v>http://dx.doi.org/10.1007/s13580-020-00284-0</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
@@ -11535,13 +11529,13 @@
         <v>http://dx.doi.org/10.1007/s11738-020-03149-2</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
@@ -11571,13 +11565,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2020.109508</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>1688</v>
+        <v>1697</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>167</v>
       </c>
@@ -11607,13 +11601,13 @@
         <v>http://dx.doi.org/10.1007/s12230-020-09803-2</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>168</v>
       </c>
@@ -11643,13 +11637,13 @@
         <v>http://dx.doi.org/10.2480/agrmet.D-20-00026</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>169</v>
       </c>
@@ -11679,13 +11673,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10101475</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
@@ -11715,13 +11709,13 @@
         <v>http://dx.doi.org/10.3390/ijms21197134</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
@@ -11751,13 +11745,13 @@
         <v>http://dx.doi.org/10.17660/eJHS.2020/85.5.4</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>1689</v>
+        <v>1701</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
@@ -11787,13 +11781,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10101456</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
@@ -11823,13 +11817,13 @@
         <v>http://dx.doi.org/10.17660/eJHS.2020/85.5.7</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>
@@ -11859,10 +11853,10 @@
         <v>http://dx.doi.org/10.3390/plants9091172</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="56" x14ac:dyDescent="0.15">
@@ -11895,13 +11889,13 @@
         <v>http://dx.doi.org/10.3390/molecules25184256</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>177</v>
       </c>
@@ -11931,13 +11925,13 @@
         <v>http://dx.doi.org/10.1080/14620316.2020.1807416</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>178</v>
       </c>
@@ -11967,13 +11961,13 @@
         <v>http://dx.doi.org/10.1080/14620316.2020.1804468</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K178" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>179</v>
       </c>
@@ -12003,13 +11997,13 @@
         <v>http://dx.doi.org/10.1002/jsfa.10636</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>180</v>
       </c>
@@ -12039,13 +12033,13 @@
         <v>http://dx.doi.org/10.1073/pnas.2002655117</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>181</v>
       </c>
@@ -12075,13 +12069,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10081082</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>182</v>
       </c>
@@ -12111,13 +12105,13 @@
         <v>http://dx.doi.org/10.3390/agriculture10080343</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>183</v>
       </c>
@@ -12147,13 +12141,13 @@
         <v>http://dx.doi.org/10.3390/su12166465</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>184</v>
       </c>
@@ -12183,13 +12177,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2020.01038</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>185</v>
       </c>
@@ -12219,13 +12213,13 @@
         <v>http://dx.doi.org/10.21273/JASHS04927-20</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>1690</v>
+        <v>1702</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>186</v>
       </c>
@@ -12255,13 +12249,13 @@
         <v>http://dx.doi.org/10.1007/s13580-020-00255-5</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>187</v>
       </c>
@@ -12291,13 +12285,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10070934</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>188</v>
       </c>
@@ -12327,13 +12321,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10070920</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>189</v>
       </c>
@@ -12363,13 +12357,13 @@
         <v>http://dx.doi.org/10.3390/app10134665</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>190</v>
       </c>
@@ -12399,13 +12393,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2020.109366</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>191</v>
       </c>
@@ -12435,13 +12429,13 @@
         <v>http://dx.doi.org/10.3390/plants9060793</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>192</v>
       </c>
@@ -12471,13 +12465,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2020.00462</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>193</v>
       </c>
@@ -12507,13 +12501,13 @@
         <v>http://dx.doi.org/10.3390/plants9050556</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>194</v>
       </c>
@@ -12543,13 +12537,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI14671-19</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>195</v>
       </c>
@@ -12579,13 +12573,13 @@
         <v>http://dx.doi.org/10.3390/agriculture10050162</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>196</v>
       </c>
@@ -12615,13 +12609,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2020.109204</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="K196" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>197</v>
       </c>
@@ -12651,13 +12645,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2020.109195</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K197" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>198</v>
       </c>
@@ -12687,13 +12681,13 @@
         <v>http://dx.doi.org/10.3390/plants9040490</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="K198" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>199</v>
       </c>
@@ -12723,13 +12717,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10030413</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K199" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>200</v>
       </c>
@@ -12759,13 +12753,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10030388</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>201</v>
       </c>
@@ -12795,13 +12789,13 @@
         <v>http://dx.doi.org/10.1016/j.jarmap.2019.100237</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>202</v>
       </c>
@@ -12831,13 +12825,13 @@
         <v>http://dx.doi.org/10.25165/j.ijabe.20201302.5135</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K202" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>203</v>
       </c>
@@ -12867,13 +12861,13 @@
         <v>http://dx.doi.org/10.3390/plants9030295</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K203" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>204</v>
       </c>
@@ -12903,13 +12897,13 @@
         <v>http://dx.doi.org/10.1038/s41598-020-59574-3</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K204" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>205</v>
       </c>
@@ -12939,13 +12933,13 @@
         <v>http://dx.doi.org/10.1111/ppl.13067</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>1691</v>
+        <v>1703</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>206</v>
       </c>
@@ -12975,13 +12969,13 @@
         <v>http://dx.doi.org/10.1016/j.jtherbio.2019.102496</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K206" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>207</v>
       </c>
@@ -13011,13 +13005,13 @@
         <v>http://dx.doi.org/10.3390/agriculture10020028</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K207" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>208</v>
       </c>
@@ -13047,13 +13041,13 @@
         <v>http://dx.doi.org/10.7235/HORT.20200059</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K208" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>209</v>
       </c>
@@ -13083,13 +13077,13 @@
         <v>http://dx.doi.org/10.7235/HORT.20200034</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K209" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>210</v>
       </c>
@@ -13119,13 +13113,13 @@
         <v>http://dx.doi.org/10.7235/HORT.20200057</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K210" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>211</v>
       </c>
@@ -13155,13 +13149,13 @@
         <v>http://dx.doi.org/10.3390/agronomy10010076</v>
       </c>
       <c r="J211" s="4" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>212</v>
       </c>
@@ -13191,13 +13185,13 @@
         <v>http://dx.doi.org/10.17957/IJAB/15.1416</v>
       </c>
       <c r="J212" s="6" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="K212" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>213</v>
       </c>
@@ -13227,13 +13221,13 @@
         <v>http://dx.doi.org/10.32615/ps.2020.013</v>
       </c>
       <c r="J213" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K213" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>214</v>
       </c>
@@ -13263,13 +13257,13 @@
         <v>http://dx.doi.org/10.32604/phyton.2020.09277</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="K214" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>215</v>
       </c>
@@ -13299,13 +13293,13 @@
         <v>http://dx.doi.org/10.3390/agronomy9120857</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K215" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>216</v>
       </c>
@@ -13335,13 +13329,13 @@
         <v>http://dx.doi.org/10.3390/agronomy9120875</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>217</v>
       </c>
@@ -13371,13 +13365,13 @@
         <v>http://dx.doi.org/10.1016/j.indcrop.2019.111612</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>218</v>
       </c>
@@ -13407,13 +13401,13 @@
         <v>http://dx.doi.org/10.25165/j.ijabe.20191206.5265</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>219</v>
       </c>
@@ -13443,13 +13437,13 @@
         <v>http://dx.doi.org/10.1007/s13580-019-00174-0</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K219" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>220</v>
       </c>
@@ -13479,13 +13473,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2019.01153</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="K220" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>221</v>
       </c>
@@ -13515,13 +13509,13 @@
         <v>http://dx.doi.org/10.1080/14620316.2019.1677510</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K221" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>222</v>
       </c>
@@ -13551,13 +13545,13 @@
         <v>http://dx.doi.org/10.3390/en12203980</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K222" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>223</v>
       </c>
@@ -13587,13 +13581,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI14236-19</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K223" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>224</v>
       </c>
@@ -13623,13 +13617,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2019.05.030</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>1688</v>
+        <v>1697</v>
       </c>
       <c r="K224" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>225</v>
       </c>
@@ -13659,13 +13653,13 @@
         <v>http://dx.doi.org/10.25165/j.ijabe.20191205.4847</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="K225" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>226</v>
       </c>
@@ -13695,13 +13689,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2019.00839</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K226" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>227</v>
       </c>
@@ -13731,13 +13725,13 @@
         <v>http://dx.doi.org/10.15835/nbha47311580</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K227" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>228</v>
       </c>
@@ -13767,13 +13761,13 @@
         <v>http://dx.doi.org/10.1016/j.envexpbot.2019.04.003</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K228" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>229</v>
       </c>
@@ -13803,13 +13797,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2019.03.057</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K229" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>231</v>
       </c>
@@ -13839,13 +13833,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI13834-18</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K230" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>232</v>
       </c>
@@ -13875,13 +13869,13 @@
         <v>http://dx.doi.org/10.3390/agronomy9050224</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K231" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>233</v>
       </c>
@@ -13911,13 +13905,13 @@
         <v>http://dx.doi.org/10.21786/bbrc/SI/12.3/8</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K232" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>234</v>
       </c>
@@ -13947,13 +13941,13 @@
         <v>http://dx.doi.org/10.1007/s13580-018-0112-1</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>235</v>
       </c>
@@ -13983,13 +13977,13 @@
         <v>http://dx.doi.org/10.3390/plants8040090</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>236</v>
       </c>
@@ -14019,13 +14013,13 @@
         <v>http://dx.doi.org/10.1007/s13580-018-0118-8</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K235" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>237</v>
       </c>
@@ -14055,13 +14049,13 @@
         <v>http://dx.doi.org/10.21273/HORTTECH04244-18</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K236" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>238</v>
       </c>
@@ -14091,13 +14085,13 @@
         <v>http://dx.doi.org/10.1007/s13580-018-0114-z</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>239</v>
       </c>
@@ -14127,13 +14121,13 @@
         <v>http://dx.doi.org/10.1016/j.ultsonch.2018.10.005</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K238" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>240</v>
       </c>
@@ -14163,13 +14157,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2018.10.023</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="K239" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>242</v>
       </c>
@@ -14199,13 +14193,13 @@
         <v>http://dx.doi.org/10.1002/jsfa.9237</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="K240" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>243</v>
       </c>
@@ -14234,13 +14228,13 @@
         <v>9</v>
       </c>
       <c r="J241" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K241" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>244</v>
       </c>
@@ -14270,13 +14264,13 @@
         <v>http://dx.doi.org/10.17660/th2019/74.1.1</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>245</v>
       </c>
@@ -14305,13 +14299,13 @@
         <v>9</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="K243" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>246</v>
       </c>
@@ -14341,13 +14335,13 @@
         <v>http://dx.doi.org/10.7235/HORT.20190060</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="K244" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>247</v>
       </c>
@@ -14377,13 +14371,13 @@
         <v>http://dx.doi.org/10.1038/s41598-018-36113-9</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="K245" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>248</v>
       </c>
@@ -14413,13 +14407,13 @@
         <v>http://dx.doi.org/10.21273/HORTTECH04024-18</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K246" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>249</v>
       </c>
@@ -14449,13 +14443,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI13469-18</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K247" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>250</v>
       </c>
@@ -14485,13 +14479,13 @@
         <v>http://dx.doi.org/10.1007/s13580-018-0052-9</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K248" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>251</v>
       </c>
@@ -14521,13 +14515,13 @@
         <v>http://dx.doi.org/10.1007/s13580-018-0076-1</v>
       </c>
       <c r="J249" s="4" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="K249" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>252</v>
       </c>
@@ -14557,13 +14551,13 @@
         <v>http://dx.doi.org/10.2480/agrmet.D-17-00048</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K250" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>253</v>
       </c>
@@ -14593,13 +14587,13 @@
         <v>http://dx.doi.org/10.3390/agronomy8100227</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K251" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>254</v>
       </c>
@@ -14629,13 +14623,13 @@
         <v>http://dx.doi.org/10.1007/s13580-018-0048-5</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="K252" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>255</v>
       </c>
@@ -14665,13 +14659,13 @@
         <v>http://dx.doi.org/10.1007/s11240-018-1415-8</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K253" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>256</v>
       </c>
@@ -14701,13 +14695,13 @@
         <v>http://dx.doi.org/10.1002/jsfa.8874</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="K254" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>257</v>
       </c>
@@ -14737,13 +14731,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI12418-17</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K255" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>258</v>
       </c>
@@ -14773,13 +14767,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2018.00665</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K256" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>259</v>
       </c>
@@ -14809,13 +14803,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2018.03.027</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K257" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>260</v>
       </c>
@@ -14845,13 +14839,13 @@
         <v>http://dx.doi.org/10.1038/s41598-018-25686-0</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K258" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>261</v>
       </c>
@@ -14881,13 +14875,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI12785-17</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K259" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>262</v>
       </c>
@@ -14917,13 +14911,13 @@
         <v>http://dx.doi.org/10.1007/s13580-018-0027-x</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>264</v>
       </c>
@@ -14953,13 +14947,13 @@
         <v>http://dx.doi.org/10.25165/j.ijabe.20181102.3420</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K261" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>265</v>
       </c>
@@ -14989,13 +14983,13 @@
         <v>http://dx.doi.org/10.12972/kjhst.20180034</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K262" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>266</v>
       </c>
@@ -15025,13 +15019,13 @@
         <v>http://dx.doi.org/10.12972/kjhst.20180005</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="K263" s="10" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>267</v>
       </c>
@@ -15061,13 +15055,13 @@
         <v>http://dx.doi.org/10.12972/kjhst.20180054</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K264" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>268</v>
       </c>
@@ -15097,13 +15091,13 @@
         <v>http://dx.doi.org/10.12972/kjhst.20180080</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K265" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>269</v>
       </c>
@@ -15133,13 +15127,13 @@
         <v>http://dx.doi.org/10.1007/s13580-017-0354-3</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="K266" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>270</v>
       </c>
@@ -15169,13 +15163,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2017.04.037</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K267" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>271</v>
       </c>
@@ -15205,13 +15199,13 @@
         <v>http://dx.doi.org/10.1007/s13580-017-0331-x</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="K268" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>272</v>
       </c>
@@ -15241,13 +15235,13 @@
         <v>http://dx.doi.org/10.12972/kjhst.20170047</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K269" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>273</v>
       </c>
@@ -15277,13 +15271,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI11822-17</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K270" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>274</v>
       </c>
@@ -15313,13 +15307,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2017.00708</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="K271" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>275</v>
       </c>
@@ -15349,13 +15343,13 @@
         <v>http://dx.doi.org/10.3965/j.ijabe.20171003.2299</v>
       </c>
       <c r="J272" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="K272" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>276</v>
       </c>
@@ -15385,13 +15379,13 @@
         <v>http://dx.doi.org/10.1007/s13580-017-0154-9</v>
       </c>
       <c r="J273" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K273" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>277</v>
       </c>
@@ -15421,13 +15415,13 @@
         <v>http://dx.doi.org/10.14295/oh.v23i2.884</v>
       </c>
       <c r="J274" s="4" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="K274" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>278</v>
       </c>
@@ -15457,13 +15451,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI11592-16</v>
       </c>
       <c r="J275" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K275" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>279</v>
       </c>
@@ -15493,13 +15487,13 @@
         <v>http://dx.doi.org/10.1007/s11099-016-0233-7</v>
       </c>
       <c r="J276" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K276" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>280</v>
       </c>
@@ -15529,13 +15523,13 @@
         <v>http://dx.doi.org/10.1016/j.foodchem.2016.09.102</v>
       </c>
       <c r="J277" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K277" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>281</v>
       </c>
@@ -15565,13 +15559,13 @@
         <v>http://dx.doi.org/10.1515/opag-2017-0004</v>
       </c>
       <c r="J278" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="K278" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>282</v>
       </c>
@@ -15601,13 +15595,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2016.11.020</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K279" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>283</v>
       </c>
@@ -15637,13 +15631,13 @@
         <v>http://dx.doi.org/10.1007/s11738-016-2320-6</v>
       </c>
       <c r="J280" s="6" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="K280" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>284</v>
       </c>
@@ -15673,13 +15667,13 @@
         <v>http://dx.doi.org/10.12972/kjhst.20160088</v>
       </c>
       <c r="J281" s="4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="K281" s="4" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>285</v>
       </c>
@@ -15709,13 +15703,13 @@
         <v>http://dx.doi.org/10.1007/s13580-016-0093-x</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K282" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>286</v>
       </c>
@@ -15745,13 +15739,13 @@
         <v>http://dx.doi.org/10.1007/s13580-016-0068-y</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K283" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>287</v>
       </c>
@@ -15781,13 +15775,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2016.07.001</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K284" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>288</v>
       </c>
@@ -15817,13 +15811,13 @@
         <v>http://dx.doi.org/10.1007/s13580-016-0103-z</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K285" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>289</v>
       </c>
@@ -15853,13 +15847,13 @@
         <v>http://dx.doi.org/10.1007/s13580-016-1060-2</v>
       </c>
       <c r="J286" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="K286" s="4" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>290</v>
       </c>
@@ -15889,13 +15883,13 @@
         <v>http://dx.doi.org/10.21273/HORTSCI10668-16</v>
       </c>
       <c r="J287" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K287" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>291</v>
       </c>
@@ -15925,13 +15919,13 @@
         <v>http://dx.doi.org/10.5511/plantbiotechnology.16.0216a</v>
       </c>
       <c r="J288" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K288" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>292</v>
       </c>
@@ -15961,13 +15955,13 @@
         <v>http://dx.doi.org/10.1007/s13580-016-0071-3</v>
       </c>
       <c r="J289" s="4" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="K289" s="4" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>293</v>
       </c>
@@ -15997,13 +15991,13 @@
         <v>http://dx.doi.org/10.1002/fes3.83</v>
       </c>
       <c r="J290" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K290" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>295</v>
       </c>
@@ -16033,13 +16027,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2015.01114</v>
       </c>
       <c r="J291" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K291" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>296</v>
       </c>
@@ -16069,13 +16063,13 @@
         <v>http://dx.doi.org/10.12972/kjhst.20160041</v>
       </c>
       <c r="J292" s="4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="K292" s="4" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>297</v>
       </c>
@@ -16105,13 +16099,13 @@
         <v>http://dx.doi.org/10.1007/s13580-016-0008-x</v>
       </c>
       <c r="J293" s="4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="K293" s="4" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>298</v>
       </c>
@@ -16141,13 +16135,13 @@
         <v>http://dx.doi.org/10.1016/j.scitotenv.2016.02.174</v>
       </c>
       <c r="J294" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K294" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>299</v>
       </c>
@@ -16177,13 +16171,13 @@
         <v>http://dx.doi.org/10.5958/0974-0112.2016.00066.9</v>
       </c>
       <c r="J295" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K295" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>302</v>
       </c>
@@ -16213,13 +16207,13 @@
         <v>http://dx.doi.org/10.12972/kjhst.20160024</v>
       </c>
       <c r="J296" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="K296" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>303</v>
       </c>
@@ -16249,13 +16243,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2016.00394</v>
       </c>
       <c r="J297" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K297" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>304</v>
       </c>
@@ -16285,13 +16279,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2016.00087</v>
       </c>
       <c r="J298" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K298" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>305</v>
       </c>
@@ -16321,13 +16315,13 @@
         <v>http://dx.doi.org/10.1007/s13580-016-0019-7</v>
       </c>
       <c r="J299" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="K299" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>306</v>
       </c>
@@ -16357,13 +16351,13 @@
         <v>http://dx.doi.org/10.3389/fpls.2015.01110</v>
       </c>
       <c r="J300" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K300" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>307</v>
       </c>
@@ -16393,13 +16387,13 @@
         <v>http://dx.doi.org/10.1371/journal.pone.0143412</v>
       </c>
       <c r="J301" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K301" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>308</v>
       </c>
@@ -16429,13 +16423,13 @@
         <v>http://dx.doi.org/10.1007/s13580-015-0035-z</v>
       </c>
       <c r="J302" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K302" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>309</v>
       </c>
@@ -16465,13 +16459,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2015.04.026</v>
       </c>
       <c r="J303" s="6" t="s">
-        <v>1693</v>
+        <v>1681</v>
       </c>
       <c r="K303" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>310</v>
       </c>
@@ -16501,13 +16495,13 @@
         <v>http://dx.doi.org/10.1016/j.scienta.2015.03.022</v>
       </c>
       <c r="J304" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="K304" s="4" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>311</v>
       </c>
@@ -16537,13 +16531,13 @@
         <v>http://dx.doi.org/10.1016/j.actaastro.2015.02.021</v>
       </c>
       <c r="J305" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="K305" s="4" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>312</v>
       </c>
@@ -16573,13 +16567,13 @@
         <v>http://dx.doi.org/10.1007/s13580-015-0130-1</v>
       </c>
       <c r="J306" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K306" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>313</v>
       </c>
@@ -16609,13 +16603,13 @@
         <v>http://dx.doi.org/10.5511/plantbiotechnology.14.1210a</v>
       </c>
       <c r="J307" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="K307" s="4" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>314</v>
       </c>
@@ -16645,13 +16639,13 @@
         <v>http://dx.doi.org/10.21273/HORTTECH.24.5.546</v>
       </c>
       <c r="J308" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K308" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>315</v>
       </c>
@@ -16681,13 +16675,13 @@
         <v>http://dx.doi.org/10.1109/TPS.2014.2326599</v>
       </c>
       <c r="J309" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K309" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>316</v>
       </c>
@@ -16717,13 +16711,13 @@
         <v>http://dx.doi.org/10.1007/s13580-014-1016-3</v>
       </c>
       <c r="J310" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K310" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>317</v>
       </c>
@@ -16753,14 +16747,21 @@
         <v>http://dx.doi.org/10.1002/jsfa.6227</v>
       </c>
       <c r="J311" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K311" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J311" xr:uid="{DC7710CA-B7AB-8346-A838-C3DCD843C95A}"/>
+  <autoFilter ref="J1:J311" xr:uid="{DC7710CA-B7AB-8346-A838-C3DCD843C95A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Hypericum"/>
+        <filter val="St. Johns Wort"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -16771,7 +16772,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$F$2:$F$78</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J14 J99:J111 J304:J311 J75 J70:J73 J57:J66 J153:J160 J162:J166 J168:J171 J186:J204 J206:J223 J77:J79 J81:J84 J113:J150 J173:J184 J86:J97 J225:J302 J16:J55</xm:sqref>
+          <xm:sqref>J2:J14 J99:J111 J304:J311 J70:J75 J57:J66 J153:J160 J162:J166 J168:J171 J186:J204 J206:J223 J77:J79 J81:J84 J113:J150 J173:J184 J86:J97 J225:J302 J16:J55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D2477EBA-C1B1-1049-A2BE-2F2CBBD7AF36}">
           <x14:formula1>
@@ -16808,454 +16809,454 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="F1" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="G1" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B2" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F2" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="G2" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B3" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="F3" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="G3" t="s">
-        <v>1696</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B4" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="F4" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="G4" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="F5" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="G5" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="G6" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F7" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="G7" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="G8" t="s">
-        <v>1701</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="G9" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="G10" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F35" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F36" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F38" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F39" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F40" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F41" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F42" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F43" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F44" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F45" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F46" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F47" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F48" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F49" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F50" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F51" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F52" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F53" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F54" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F55" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F56" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F57" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F58" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F59" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F60" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F61" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F62" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F63" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F64" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F65" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F66" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F67" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F68" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F69" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F70" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F71" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F72" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F73" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F74" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F75" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F76" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F77" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F78" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F79" t="s">
-        <v>1692</v>
+        <v>1680</v>
       </c>
     </row>
   </sheetData>
